--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt1-Fzd8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt1-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,7 +88,10 @@
     <t>Fzd8</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H2">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.03533045753573</v>
+        <v>3.062569</v>
       </c>
       <c r="N2">
-        <v>3.03533045753573</v>
+        <v>9.187707</v>
       </c>
       <c r="O2">
-        <v>0.2514573782857693</v>
+        <v>0.2460077391286943</v>
       </c>
       <c r="P2">
-        <v>0.2514573782857693</v>
+        <v>0.2690593624267</v>
       </c>
       <c r="Q2">
-        <v>0.7132886476257972</v>
+        <v>0.05968844895366666</v>
       </c>
       <c r="R2">
-        <v>0.7132886476257972</v>
+        <v>0.537196040583</v>
       </c>
       <c r="S2">
-        <v>0.2514573782857693</v>
+        <v>0.01745686279875775</v>
       </c>
       <c r="T2">
-        <v>0.2514573782857693</v>
+        <v>0.01909262038356861</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H3">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.89880084844348</v>
+        <v>6.147102</v>
       </c>
       <c r="N3">
-        <v>5.89880084844348</v>
+        <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4886772683010276</v>
+        <v>0.4937797859292232</v>
       </c>
       <c r="P3">
-        <v>0.4886772683010276</v>
+        <v>0.5400483531609875</v>
       </c>
       <c r="Q3">
-        <v>1.386190972832693</v>
+        <v>0.119804968946</v>
       </c>
       <c r="R3">
-        <v>1.386190972832693</v>
+        <v>1.078244720514</v>
       </c>
       <c r="S3">
-        <v>0.4886772683010276</v>
+        <v>0.0350389219717072</v>
       </c>
       <c r="T3">
-        <v>0.4886772683010276</v>
+        <v>0.03832216839688358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -655,49 +661,483 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.234995384392146</v>
+        <v>0.01948966666666667</v>
       </c>
       <c r="H4">
-        <v>0.234995384392146</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.07096062449330311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.13682273890955</v>
+        <v>0.01759833333333333</v>
       </c>
       <c r="N4">
-        <v>3.13682273890955</v>
+        <v>0.052795</v>
       </c>
       <c r="O4">
-        <v>0.259865353413203</v>
+        <v>0.001413625683459368</v>
       </c>
       <c r="P4">
-        <v>0.259865353413203</v>
+        <v>0.001546086421706485</v>
       </c>
       <c r="Q4">
-        <v>0.737138865300074</v>
+        <v>0.0003429856505555555</v>
       </c>
       <c r="R4">
-        <v>0.737138865300074</v>
+        <v>0.003086870855</v>
       </c>
       <c r="S4">
-        <v>0.259865353413203</v>
+        <v>0.0001003117612980491</v>
       </c>
       <c r="T4">
-        <v>0.259865353413203</v>
+        <v>0.0001097112580049086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01948966666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.058469</v>
+      </c>
+      <c r="I5">
+        <v>0.07096062449330311</v>
+      </c>
+      <c r="J5">
+        <v>0.07096062449330311</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.022088</v>
+      </c>
+      <c r="N5">
+        <v>0.066264</v>
+      </c>
+      <c r="O5">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="P5">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="Q5">
+        <v>0.0004304877573333333</v>
+      </c>
+      <c r="R5">
+        <v>0.003874389816</v>
+      </c>
+      <c r="S5">
+        <v>0.0001259031830789645</v>
+      </c>
+      <c r="T5">
+        <v>0.000137700668632205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01948966666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.058469</v>
+      </c>
+      <c r="I6">
+        <v>0.07096062449330311</v>
+      </c>
+      <c r="J6">
+        <v>0.07096062449330311</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.1997185</v>
+      </c>
+      <c r="N6">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="P6">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="Q6">
+        <v>0.06236144699216667</v>
+      </c>
+      <c r="R6">
+        <v>0.374168681953</v>
+      </c>
+      <c r="S6">
+        <v>0.01823862477846114</v>
+      </c>
+      <c r="T6">
+        <v>0.01329842378621381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.255165</v>
+      </c>
+      <c r="H7">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J7">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.062569</v>
+      </c>
+      <c r="N7">
+        <v>9.187707</v>
+      </c>
+      <c r="O7">
+        <v>0.2460077391286943</v>
+      </c>
+      <c r="P7">
+        <v>0.2690593624267</v>
+      </c>
+      <c r="Q7">
+        <v>0.7814604188849998</v>
+      </c>
+      <c r="R7">
+        <v>7.033143769964999</v>
+      </c>
+      <c r="S7">
+        <v>0.2285508763299365</v>
+      </c>
+      <c r="T7">
+        <v>0.2499667420431314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.255165</v>
+      </c>
+      <c r="H8">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J8">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.147102</v>
+      </c>
+      <c r="N8">
+        <v>18.441306</v>
+      </c>
+      <c r="O8">
+        <v>0.4937797859292232</v>
+      </c>
+      <c r="P8">
+        <v>0.5400483531609875</v>
+      </c>
+      <c r="Q8">
+        <v>1.56852528183</v>
+      </c>
+      <c r="R8">
+        <v>14.11672753647</v>
+      </c>
+      <c r="S8">
+        <v>0.458740863957516</v>
+      </c>
+      <c r="T8">
+        <v>0.501726184764104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.255165</v>
+      </c>
+      <c r="H9">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J9">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.01759833333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.052795</v>
+      </c>
+      <c r="O9">
+        <v>0.001413625683459368</v>
+      </c>
+      <c r="P9">
+        <v>0.001546086421706485</v>
+      </c>
+      <c r="Q9">
+        <v>0.004490478724999999</v>
+      </c>
+      <c r="R9">
+        <v>0.040414308525</v>
+      </c>
+      <c r="S9">
+        <v>0.001313313922161318</v>
+      </c>
+      <c r="T9">
+        <v>0.001436375163701577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.255165</v>
+      </c>
+      <c r="H10">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J10">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.022088</v>
+      </c>
+      <c r="N10">
+        <v>0.066264</v>
+      </c>
+      <c r="O10">
+        <v>0.001774268250568265</v>
+      </c>
+      <c r="P10">
+        <v>0.00194052222081558</v>
+      </c>
+      <c r="Q10">
+        <v>0.005636084519999999</v>
+      </c>
+      <c r="R10">
+        <v>0.05072476067999999</v>
+      </c>
+      <c r="S10">
+        <v>0.0016483650674893</v>
+      </c>
+      <c r="T10">
+        <v>0.001802821552183375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.255165</v>
+      </c>
+      <c r="H11">
+        <v>0.7654949999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9290393755066968</v>
+      </c>
+      <c r="J11">
+        <v>0.9290393755066969</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.1997185</v>
+      </c>
+      <c r="N11">
+        <v>6.399437000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.2570245810080548</v>
+      </c>
+      <c r="P11">
+        <v>0.1874056757697904</v>
+      </c>
+      <c r="Q11">
+        <v>0.8164561710525</v>
+      </c>
+      <c r="R11">
+        <v>4.898737026315</v>
+      </c>
+      <c r="S11">
+        <v>0.2387859562295936</v>
+      </c>
+      <c r="T11">
+        <v>0.1741072519835766</v>
       </c>
     </row>
   </sheetData>
